--- a/Python 数据实验/实验测试2.0/数据源/数据集来源-去哪网/2019-12-23-9-51-48-1021205506132100-北京出发西安旅游线路推荐_要多少钱【最低报价】价格-去哪儿网-采集的数据-后羿采集器.xlsx
+++ b/Python 数据实验/实验测试2.0/数据源/数据集来源-去哪网/2019-12-23-9-51-48-1021205506132100-北京出发西安旅游线路推荐_要多少钱【最低报价】价格-去哪儿网-采集的数据-后羿采集器.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="sheet1" state="visible" r:id="rId4"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="351">
   <si>
     <t>标题</t>
   </si>
@@ -1069,25 +1072,368 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts x14ac:knownFonts="1" count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1095,24 +1441,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1434,15 +2066,21 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E121"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E121"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1453,7 +2091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1463,8 +2101,14 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>40</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1474,8 +2118,14 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>40</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1485,8 +2135,14 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>40</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1496,8 +2152,14 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>40</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1507,8 +2169,14 @@
       <c r="C6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1518,8 +2186,14 @@
       <c r="C7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1529,8 +2203,14 @@
       <c r="C8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>40</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1540,8 +2220,14 @@
       <c r="C9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1551,8 +2237,14 @@
       <c r="C10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>40</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1562,8 +2254,14 @@
       <c r="C11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>40</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1573,8 +2271,14 @@
       <c r="C12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>40</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -1584,8 +2288,14 @@
       <c r="C13" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>40</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -1595,8 +2305,14 @@
       <c r="C14" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>40</v>
+      </c>
+      <c r="E14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -1606,8 +2322,14 @@
       <c r="C15" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>40</v>
+      </c>
+      <c r="E15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -1617,8 +2339,14 @@
       <c r="C16" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>40</v>
+      </c>
+      <c r="E16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -1628,8 +2356,14 @@
       <c r="C17" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>40</v>
+      </c>
+      <c r="E17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -1639,8 +2373,14 @@
       <c r="C18" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>40</v>
+      </c>
+      <c r="E18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -1650,8 +2390,14 @@
       <c r="C19" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>40</v>
+      </c>
+      <c r="E19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -1661,8 +2407,14 @@
       <c r="C20" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>40</v>
+      </c>
+      <c r="E20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -1672,8 +2424,14 @@
       <c r="C21" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>40</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -1683,8 +2441,14 @@
       <c r="C22" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>40</v>
+      </c>
+      <c r="E22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -1694,8 +2458,14 @@
       <c r="C23" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>40</v>
+      </c>
+      <c r="E23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>68</v>
       </c>
@@ -1705,8 +2475,14 @@
       <c r="C24" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>40</v>
+      </c>
+      <c r="E24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>71</v>
       </c>
@@ -1716,8 +2492,14 @@
       <c r="C25" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>40</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>74</v>
       </c>
@@ -1727,8 +2509,14 @@
       <c r="C26" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>40</v>
+      </c>
+      <c r="E26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -1738,8 +2526,14 @@
       <c r="C27" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>40</v>
+      </c>
+      <c r="E27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>79</v>
       </c>
@@ -1749,8 +2543,14 @@
       <c r="C28" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>40</v>
+      </c>
+      <c r="E28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>82</v>
       </c>
@@ -1760,8 +2560,14 @@
       <c r="C29" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>40</v>
+      </c>
+      <c r="E29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>85</v>
       </c>
@@ -1771,8 +2577,14 @@
       <c r="C30" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>40</v>
+      </c>
+      <c r="E30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>88</v>
       </c>
@@ -1782,8 +2594,14 @@
       <c r="C31" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>40</v>
+      </c>
+      <c r="E31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>91</v>
       </c>
@@ -1793,8 +2611,14 @@
       <c r="C32" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>40</v>
+      </c>
+      <c r="E32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>93</v>
       </c>
@@ -1804,8 +2628,14 @@
       <c r="C33" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>40</v>
+      </c>
+      <c r="E33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>95</v>
       </c>
@@ -1815,8 +2645,14 @@
       <c r="C34" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>40</v>
+      </c>
+      <c r="E34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>98</v>
       </c>
@@ -1826,8 +2662,14 @@
       <c r="C35" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>40</v>
+      </c>
+      <c r="E35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>101</v>
       </c>
@@ -1837,8 +2679,14 @@
       <c r="C36" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>40</v>
+      </c>
+      <c r="E36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>103</v>
       </c>
@@ -1848,8 +2696,14 @@
       <c r="C37" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>40</v>
+      </c>
+      <c r="E37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>105</v>
       </c>
@@ -1859,8 +2713,14 @@
       <c r="C38" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>40</v>
+      </c>
+      <c r="E38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>108</v>
       </c>
@@ -1870,8 +2730,14 @@
       <c r="C39" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>40</v>
+      </c>
+      <c r="E39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>111</v>
       </c>
@@ -1881,8 +2747,14 @@
       <c r="C40" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>40</v>
+      </c>
+      <c r="E40">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>114</v>
       </c>
@@ -1892,8 +2764,14 @@
       <c r="C41" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>40</v>
+      </c>
+      <c r="E41">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>117</v>
       </c>
@@ -1903,8 +2781,14 @@
       <c r="C42" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>40</v>
+      </c>
+      <c r="E42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>120</v>
       </c>
@@ -1914,8 +2798,14 @@
       <c r="C43" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>40</v>
+      </c>
+      <c r="E43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>123</v>
       </c>
@@ -1925,8 +2815,14 @@
       <c r="C44" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>40</v>
+      </c>
+      <c r="E44">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>126</v>
       </c>
@@ -1936,8 +2832,14 @@
       <c r="C45" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>40</v>
+      </c>
+      <c r="E45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>129</v>
       </c>
@@ -1947,8 +2849,14 @@
       <c r="C46" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>40</v>
+      </c>
+      <c r="E46">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>132</v>
       </c>
@@ -1958,8 +2866,14 @@
       <c r="C47" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>40</v>
+      </c>
+      <c r="E47">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>134</v>
       </c>
@@ -1969,8 +2883,14 @@
       <c r="C48" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>40</v>
+      </c>
+      <c r="E48">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>137</v>
       </c>
@@ -1980,8 +2900,14 @@
       <c r="C49" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>40</v>
+      </c>
+      <c r="E49">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>139</v>
       </c>
@@ -1991,8 +2917,14 @@
       <c r="C50" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>40</v>
+      </c>
+      <c r="E50">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>142</v>
       </c>
@@ -2002,8 +2934,14 @@
       <c r="C51" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>40</v>
+      </c>
+      <c r="E51">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>145</v>
       </c>
@@ -2013,8 +2951,14 @@
       <c r="C52" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>40</v>
+      </c>
+      <c r="E52">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>148</v>
       </c>
@@ -2024,8 +2968,14 @@
       <c r="C53" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>40</v>
+      </c>
+      <c r="E53">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>151</v>
       </c>
@@ -2035,8 +2985,14 @@
       <c r="C54" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>40</v>
+      </c>
+      <c r="E54">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>154</v>
       </c>
@@ -2046,8 +3002,14 @@
       <c r="C55" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <v>40</v>
+      </c>
+      <c r="E55">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>157</v>
       </c>
@@ -2057,8 +3019,14 @@
       <c r="C56" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>40</v>
+      </c>
+      <c r="E56">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>160</v>
       </c>
@@ -2068,8 +3036,14 @@
       <c r="C57" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <v>40</v>
+      </c>
+      <c r="E57">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>163</v>
       </c>
@@ -2079,8 +3053,14 @@
       <c r="C58" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <v>40</v>
+      </c>
+      <c r="E58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>166</v>
       </c>
@@ -2090,8 +3070,14 @@
       <c r="C59" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <v>40</v>
+      </c>
+      <c r="E59">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>169</v>
       </c>
@@ -2101,8 +3087,14 @@
       <c r="C60" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <v>40</v>
+      </c>
+      <c r="E60">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>172</v>
       </c>
@@ -2112,8 +3104,14 @@
       <c r="C61" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61">
+        <v>40</v>
+      </c>
+      <c r="E61">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>175</v>
       </c>
@@ -2123,8 +3121,14 @@
       <c r="C62" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <v>40</v>
+      </c>
+      <c r="E62">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>178</v>
       </c>
@@ -2134,8 +3138,14 @@
       <c r="C63" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <v>40</v>
+      </c>
+      <c r="E63">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>181</v>
       </c>
@@ -2145,8 +3155,14 @@
       <c r="C64" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <v>40</v>
+      </c>
+      <c r="E64">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>184</v>
       </c>
@@ -2156,8 +3172,14 @@
       <c r="C65" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>40</v>
+      </c>
+      <c r="E65">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>187</v>
       </c>
@@ -2167,8 +3189,14 @@
       <c r="C66" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>40</v>
+      </c>
+      <c r="E66">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>190</v>
       </c>
@@ -2178,8 +3206,14 @@
       <c r="C67" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <v>40</v>
+      </c>
+      <c r="E67">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>193</v>
       </c>
@@ -2189,8 +3223,14 @@
       <c r="C68" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>40</v>
+      </c>
+      <c r="E68">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>196</v>
       </c>
@@ -2200,8 +3240,14 @@
       <c r="C69" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <v>40</v>
+      </c>
+      <c r="E69">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>199</v>
       </c>
@@ -2211,8 +3257,14 @@
       <c r="C70" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <v>40</v>
+      </c>
+      <c r="E70">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>202</v>
       </c>
@@ -2222,8 +3274,14 @@
       <c r="C71" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <v>40</v>
+      </c>
+      <c r="E71">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>205</v>
       </c>
@@ -2233,8 +3291,14 @@
       <c r="C72" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <v>40</v>
+      </c>
+      <c r="E72">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>208</v>
       </c>
@@ -2244,8 +3308,14 @@
       <c r="C73" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73">
+        <v>40</v>
+      </c>
+      <c r="E73">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>211</v>
       </c>
@@ -2255,8 +3325,14 @@
       <c r="C74" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <v>40</v>
+      </c>
+      <c r="E74">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>214</v>
       </c>
@@ -2266,8 +3342,14 @@
       <c r="C75" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75">
+        <v>40</v>
+      </c>
+      <c r="E75">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>217</v>
       </c>
@@ -2277,8 +3359,14 @@
       <c r="C76" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <v>40</v>
+      </c>
+      <c r="E76">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>220</v>
       </c>
@@ -2288,8 +3376,14 @@
       <c r="C77" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77">
+        <v>40</v>
+      </c>
+      <c r="E77">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>223</v>
       </c>
@@ -2299,8 +3393,14 @@
       <c r="C78" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78">
+        <v>40</v>
+      </c>
+      <c r="E78">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>226</v>
       </c>
@@ -2310,8 +3410,14 @@
       <c r="C79" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79">
+        <v>40</v>
+      </c>
+      <c r="E79">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
         <v>229</v>
       </c>
@@ -2321,8 +3427,14 @@
       <c r="C80" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80">
+        <v>40</v>
+      </c>
+      <c r="E80">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
         <v>232</v>
       </c>
@@ -2332,8 +3444,14 @@
       <c r="C81" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81">
+        <v>40</v>
+      </c>
+      <c r="E81">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
         <v>235</v>
       </c>
@@ -2343,8 +3461,14 @@
       <c r="C82" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82">
+        <v>40</v>
+      </c>
+      <c r="E82">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>238</v>
       </c>
@@ -2354,8 +3478,14 @@
       <c r="C83" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83">
+        <v>40</v>
+      </c>
+      <c r="E83">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
         <v>241</v>
       </c>
@@ -2365,8 +3495,14 @@
       <c r="C84" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84">
+        <v>40</v>
+      </c>
+      <c r="E84">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>244</v>
       </c>
@@ -2376,8 +3512,14 @@
       <c r="C85" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85">
+        <v>40</v>
+      </c>
+      <c r="E85">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
         <v>247</v>
       </c>
@@ -2387,8 +3529,14 @@
       <c r="C86" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86">
+        <v>40</v>
+      </c>
+      <c r="E86">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
         <v>250</v>
       </c>
@@ -2398,8 +3546,14 @@
       <c r="C87" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87">
+        <v>40</v>
+      </c>
+      <c r="E87">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>253</v>
       </c>
@@ -2409,8 +3563,14 @@
       <c r="C88" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88">
+        <v>40</v>
+      </c>
+      <c r="E88">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89" t="s">
         <v>256</v>
       </c>
@@ -2420,8 +3580,14 @@
       <c r="C89" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89">
+        <v>40</v>
+      </c>
+      <c r="E89">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>259</v>
       </c>
@@ -2431,8 +3597,14 @@
       <c r="C90" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90">
+        <v>40</v>
+      </c>
+      <c r="E90">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>262</v>
       </c>
@@ -2442,8 +3614,14 @@
       <c r="C91" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91">
+        <v>40</v>
+      </c>
+      <c r="E91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
         <v>265</v>
       </c>
@@ -2453,8 +3631,14 @@
       <c r="C92" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92">
+        <v>40</v>
+      </c>
+      <c r="E92">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93" t="s">
         <v>268</v>
       </c>
@@ -2464,8 +3648,14 @@
       <c r="C93" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93">
+        <v>40</v>
+      </c>
+      <c r="E93">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" t="s">
         <v>270</v>
       </c>
@@ -2475,8 +3665,14 @@
       <c r="C94" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94">
+        <v>40</v>
+      </c>
+      <c r="E94">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95" t="s">
         <v>273</v>
       </c>
@@ -2486,8 +3682,14 @@
       <c r="C95" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95">
+        <v>40</v>
+      </c>
+      <c r="E95">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96" t="s">
         <v>276</v>
       </c>
@@ -2497,8 +3699,14 @@
       <c r="C96" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96">
+        <v>40</v>
+      </c>
+      <c r="E96">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97" t="s">
         <v>279</v>
       </c>
@@ -2508,8 +3716,14 @@
       <c r="C97" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97">
+        <v>40</v>
+      </c>
+      <c r="E97">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98" t="s">
         <v>282</v>
       </c>
@@ -2519,8 +3733,14 @@
       <c r="C98" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98">
+        <v>40</v>
+      </c>
+      <c r="E98">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99" t="s">
         <v>284</v>
       </c>
@@ -2530,8 +3750,14 @@
       <c r="C99" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99">
+        <v>40</v>
+      </c>
+      <c r="E99">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100" t="s">
         <v>287</v>
       </c>
@@ -2541,8 +3767,14 @@
       <c r="C100" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100">
+        <v>40</v>
+      </c>
+      <c r="E100">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101" t="s">
         <v>290</v>
       </c>
@@ -2552,8 +3784,14 @@
       <c r="C101" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101">
+        <v>40</v>
+      </c>
+      <c r="E101">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102" t="s">
         <v>293</v>
       </c>
@@ -2563,8 +3801,14 @@
       <c r="C102" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102">
+        <v>40</v>
+      </c>
+      <c r="E102">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103" t="s">
         <v>296</v>
       </c>
@@ -2574,8 +3818,14 @@
       <c r="C103" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103">
+        <v>40</v>
+      </c>
+      <c r="E103">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104" t="s">
         <v>299</v>
       </c>
@@ -2585,8 +3835,14 @@
       <c r="C104" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104">
+        <v>40</v>
+      </c>
+      <c r="E104">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105" t="s">
         <v>302</v>
       </c>
@@ -2596,8 +3852,14 @@
       <c r="C105" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105">
+        <v>40</v>
+      </c>
+      <c r="E105">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106" t="s">
         <v>305</v>
       </c>
@@ -2607,8 +3869,14 @@
       <c r="C106" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106">
+        <v>40</v>
+      </c>
+      <c r="E106">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
       <c r="A107" t="s">
         <v>308</v>
       </c>
@@ -2618,8 +3886,14 @@
       <c r="C107" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107">
+        <v>40</v>
+      </c>
+      <c r="E107">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108" t="s">
         <v>311</v>
       </c>
@@ -2629,8 +3903,14 @@
       <c r="C108" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108">
+        <v>40</v>
+      </c>
+      <c r="E108">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109" t="s">
         <v>314</v>
       </c>
@@ -2640,8 +3920,14 @@
       <c r="C109" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109">
+        <v>40</v>
+      </c>
+      <c r="E109">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
       <c r="A110" t="s">
         <v>316</v>
       </c>
@@ -2651,8 +3937,14 @@
       <c r="C110" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110">
+        <v>40</v>
+      </c>
+      <c r="E110">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111" t="s">
         <v>319</v>
       </c>
@@ -2662,8 +3954,14 @@
       <c r="C111" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111">
+        <v>40</v>
+      </c>
+      <c r="E111">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
       <c r="A112" t="s">
         <v>322</v>
       </c>
@@ -2673,8 +3971,14 @@
       <c r="C112" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112">
+        <v>40</v>
+      </c>
+      <c r="E112">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113" t="s">
         <v>325</v>
       </c>
@@ -2684,8 +3988,14 @@
       <c r="C113" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113">
+        <v>40</v>
+      </c>
+      <c r="E113">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>328</v>
       </c>
@@ -2695,8 +4005,14 @@
       <c r="C114" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114">
+        <v>40</v>
+      </c>
+      <c r="E114">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>330</v>
       </c>
@@ -2706,8 +4022,14 @@
       <c r="C115" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115">
+        <v>40</v>
+      </c>
+      <c r="E115">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116" t="s">
         <v>333</v>
       </c>
@@ -2717,8 +4039,14 @@
       <c r="C116" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116">
+        <v>40</v>
+      </c>
+      <c r="E116">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
       <c r="A117" t="s">
         <v>336</v>
       </c>
@@ -2728,8 +4056,14 @@
       <c r="C117" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117">
+        <v>40</v>
+      </c>
+      <c r="E117">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118" t="s">
         <v>339</v>
       </c>
@@ -2739,8 +4073,14 @@
       <c r="C118" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118">
+        <v>40</v>
+      </c>
+      <c r="E118">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
       <c r="A119" t="s">
         <v>342</v>
       </c>
@@ -2750,8 +4090,14 @@
       <c r="C119" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119">
+        <v>40</v>
+      </c>
+      <c r="E119">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
       <c r="A120" t="s">
         <v>345</v>
       </c>
@@ -2761,8 +4107,14 @@
       <c r="C120" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120">
+        <v>40</v>
+      </c>
+      <c r="E120">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121" t="s">
         <v>348</v>
       </c>
@@ -2772,9 +4124,16 @@
       <c r="C121" t="s">
         <v>350</v>
       </c>
+      <c r="D121">
+        <v>40</v>
+      </c>
+      <c r="E121">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>